--- a/data/case1/5/P_device_5.xlsx
+++ b/data/case1/5/P_device_5.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.063087915116828472</v>
+        <v>0.030337353010300092</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.063087915879469519</v>
+        <v>-0.03033735442754968</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.053769070448563196</v>
+        <v>-0.055013197876232586</v>
       </c>
       <c r="B2" s="0">
-        <v>0.053769069656482538</v>
+        <v>0.0550131964374138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.048534926993575388</v>
+        <v>0.069773215842998448</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.048534927758309879</v>
+        <v>-0.069773217209134986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.033463597086133057</v>
+        <v>0.062810646026219955</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.033463597869547168</v>
+        <v>-0.062810647434543274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.048613300887364444</v>
+        <v>-0.036279071446375669</v>
       </c>
       <c r="B5" s="0">
-        <v>0.048613300114659252</v>
+        <v>0.036279069987369426</v>
       </c>
     </row>
   </sheetData>
